--- a/Immath/bin/Debug/users.xlsx
+++ b/Immath/bin/Debug/users.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\immath\Immath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Immath\Immath\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>รายงานรายได้ครู</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>รายได้สะสม</t>
+  </si>
+  <si>
+    <t>book_no</t>
+  </si>
+  <si>
+    <t>bill_no</t>
   </si>
 </sst>
 </file>
@@ -90,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -118,36 +124,8 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -160,12 +138,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -491,7 +467,7 @@
     <col min="2" max="2" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -501,13 +477,15 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -532,32 +510,38 @@
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J3" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J4" s="1" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J5" s="1" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
